--- a/tests/evaluated_data_PF_ENUM.HISS.xlsx
+++ b/tests/evaluated_data_PF_ENUM.HISS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>supported</t>
+          <t>mostly true</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -475,7 +475,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>supported</t>
+          <t>true</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -492,7 +492,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>refuted</t>
+          <t>false</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -509,7 +509,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>unsupported</t>
+          <t>unverified</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -526,7 +526,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>supported</t>
+          <t>true</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>refuted</t>
+          <t>false</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -560,7 +560,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>refuted</t>
+          <t>false</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>partially supported</t>
+          <t>half-true</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>refuted</t>
+          <t>false</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>refuted</t>
+          <t>false</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>supported</t>
+          <t>true</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>partially supported</t>
+          <t>half-true</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>supported</t>
+          <t>half-true</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>refuted</t>
+          <t>false</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>refuted</t>
+          <t>false</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>refuted</t>
+          <t>false</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>partially supported</t>
+          <t>half-true</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>supported</t>
+          <t>false</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>refuted</t>
+          <t>half-true</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
